--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_11-44.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_11-44.xlsx
@@ -38,6 +38,12 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>ALGASON MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -50,9 +56,6 @@
     <t>CAPIXY LASH SERUM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -83,12 +86,15 @@
     <t>DOWNOPRAZOL 20/1100MG 14 CAPSULES</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>FLACORT 6MG 20 TABS.</t>
   </si>
   <si>
@@ -110,6 +116,9 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 24 F.C. TAB</t>
   </si>
   <si>
@@ -120,6 +129,9 @@
   </si>
   <si>
     <t>1:4</t>
+  </si>
+  <si>
+    <t>REPAION-N GEL 50 GM</t>
   </si>
   <si>
     <t>SAMA GAR SACHET</t>
@@ -819,7 +831,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="10">
@@ -839,17 +851,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -857,7 +869,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -865,17 +877,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>450</v>
+        <v>87</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -891,13 +903,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
@@ -909,7 +921,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -917,13 +929,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
@@ -943,13 +955,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
@@ -969,13 +981,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
@@ -995,17 +1007,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>82.920000000000002</v>
+        <v>72</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>2.3300000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1013,7 +1025,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1021,17 +1033,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>16</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.33000000000000002</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1039,7 +1051,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1047,17 +1059,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1073,13 +1085,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>169.19999999999999</v>
+        <v>74</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
@@ -1091,7 +1103,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1099,13 +1111,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
@@ -1125,17 +1137,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>86.5</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1143,7 +1155,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1151,13 +1163,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1169,7 +1181,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1177,17 +1189,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1203,13 +1215,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1221,7 +1233,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1229,17 +1241,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1247,7 +1259,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1255,17 +1267,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1273,7 +1285,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1281,13 +1293,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>60</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1299,7 +1311,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1307,17 +1319,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1325,7 +1337,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1333,17 +1345,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1351,7 +1363,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1359,17 +1371,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1377,7 +1389,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1391,11 +1403,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>74.689999999999998</v>
+        <v>60</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1403,7 +1415,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1411,17 +1423,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1429,7 +1441,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1437,17 +1449,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1455,7 +1467,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1463,17 +1475,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>102.59999999999999</v>
+        <v>168</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1481,7 +1493,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1489,17 +1501,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>40</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1507,7 +1519,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1515,17 +1527,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1533,7 +1545,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1541,17 +1553,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1559,7 +1571,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1567,17 +1579,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>22</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1585,7 +1597,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1593,13 +1605,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1611,7 +1623,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1619,17 +1631,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1637,7 +1649,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1645,13 +1657,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1663,7 +1675,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1671,51 +1683,155 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="K39" s="11">
-        <v>2554.9099999999999</v>
-      </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" ht="24.75" customHeight="1">
+      <c r="A39" s="6">
+        <v>36</v>
+      </c>
+      <c t="s" r="B39" s="7">
+        <v>58</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c t="s" r="H39" s="8">
+        <v>10</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9">
+        <v>63</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c t="s" r="B40" s="7">
+        <v>59</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c t="s" r="H40" s="8">
+        <v>60</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9">
+        <v>72</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" ht="24.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c t="s" r="B41" s="7">
         <v>61</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c t="s" r="F40" s="13">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c t="s" r="H41" s="8">
         <v>62</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
-      <c t="s" r="I40" s="15">
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9">
+        <v>45</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="6">
+        <v>39</v>
+      </c>
+      <c t="s" r="B42" s="7">
         <v>63</v>
       </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c t="s" r="H42" s="8">
+        <v>64</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9">
+        <v>30</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" customHeight="1">
+      <c r="K43" s="11">
+        <v>2762.8699999999999</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" ht="17.25" customHeight="1">
+      <c t="s" r="A44" s="12">
+        <v>65</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c t="s" r="F44" s="13">
+        <v>66</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c t="s" r="I44" s="15">
+        <v>67</v>
+      </c>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="116">
+  <mergeCells count="128">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1828,10 +1944,22 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:N44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
